--- a/knowledge/hohli.xlsx
+++ b/knowledge/hohli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\PycharmProjects\rsppr\knowledge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39123F30-F11A-49D3-9930-B3C31FE02426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72523AD2-8D7E-47F7-9EAB-6F20B4368B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="2265" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Фраза</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Важность</t>
   </si>
   <si>
-    <t>Правда</t>
-  </si>
-  <si>
     <t>База</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>0.3</t>
   </si>
   <si>
-    <t>Тематика</t>
-  </si>
-  <si>
     <t>Сталин устроил голодомор</t>
   </si>
   <si>
@@ -60,54 +54,21 @@
     <t>0.6</t>
   </si>
   <si>
-    <t>Его же не наказли, значит все делал правильно</t>
-  </si>
-  <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>Неа, Крым наш, еще со времен Хрущева</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>Ну тк его вы военным путем отобрали</t>
-  </si>
-  <si>
     <t>У вас презедент диктатор</t>
   </si>
   <si>
-    <t>У нас он умеет играть писькой на пианино, а ваш что может?</t>
-  </si>
-  <si>
     <t>Майдан был ради свободы, мы хотели в ЕС</t>
   </si>
   <si>
-    <t xml:space="preserve">презедент </t>
-  </si>
-  <si>
-    <t xml:space="preserve">крым </t>
-  </si>
-  <si>
-    <t>крым, презедент</t>
-  </si>
-  <si>
-    <t>бандера</t>
-  </si>
-  <si>
     <t>Русские - нацисты</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>нацизм</t>
-  </si>
-  <si>
-    <t>Кому? В ЛДНР было убито 14 человек за все время</t>
-  </si>
-  <si>
     <t>Хрю-хрю</t>
   </si>
   <si>
@@ -120,58 +81,67 @@
     <t>Сразу видно, пропагандон</t>
   </si>
   <si>
-    <t>ес, пропаганда</t>
-  </si>
-  <si>
     <t>"абвгд" тоже люди</t>
   </si>
   <si>
     <t>Москалю не давали говорить</t>
   </si>
   <si>
-    <t>срач</t>
-  </si>
-  <si>
     <t>Вы поубивали наших в Буче</t>
   </si>
   <si>
-    <t>Буча</t>
-  </si>
-  <si>
     <t>Буча реально была, вот статья</t>
   </si>
   <si>
     <t>Кто не скачет, тот москаль</t>
   </si>
   <si>
-    <t>йцук</t>
-  </si>
-  <si>
-    <t>бандера, старт</t>
-  </si>
-  <si>
-    <t>презедент, старт</t>
-  </si>
-  <si>
-    <t>майдан, европа, старт</t>
-  </si>
-  <si>
-    <t>нацизм, старт</t>
-  </si>
-  <si>
-    <t>ес, старт</t>
-  </si>
-  <si>
-    <t>алфавит, старт</t>
-  </si>
-  <si>
-    <t>Буча, старт</t>
-  </si>
-  <si>
-    <t>голодомор, старт</t>
-  </si>
-  <si>
-    <t>гг, старт</t>
+    <t>ах бандеро український апостол</t>
+  </si>
+  <si>
+    <t>Крым наш, еще со времен Хрущева</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>Орка забыли спросить</t>
+  </si>
+  <si>
+    <t>У нас презедент умеет играть писькой на пианино, а ваш что может?</t>
+  </si>
+  <si>
+    <t>Донбили бамбасс</t>
+  </si>
+  <si>
+    <t>В Украину</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>Оиньк</t>
+  </si>
+  <si>
+    <t>*Звуки плача свинок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Звуки бомбежки </t>
+  </si>
+  <si>
+    <t>*Звуки покланения Бандере</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А Геракл вообще-то родился на территории Украины </t>
+  </si>
+  <si>
+    <t>Аллея ангелов миф</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.35</t>
   </si>
 </sst>
 </file>
@@ -489,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +471,7 @@
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -509,335 +479,303 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11">
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="F12">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="D28">
         <v>1</v>
       </c>
     </row>

--- a/knowledge/hohli.xlsx
+++ b/knowledge/hohli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\PycharmProjects\rsppr\knowledge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72523AD2-8D7E-47F7-9EAB-6F20B4368B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E331B194-285F-4D12-8D3F-1FD62DACAD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,109 +39,109 @@
     <t>Сталин был кровавым диктатором</t>
   </si>
   <si>
+    <t>Сталин устроил голодомор</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Бандера боролся за свободу</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>У вас презедент диктатор</t>
+  </si>
+  <si>
+    <t>Майдан был ради свободы, мы хотели в ЕС</t>
+  </si>
+  <si>
+    <t>Русские - нацисты</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Хрю-хрю</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Мы хотим в ес</t>
+  </si>
+  <si>
+    <t>Сразу видно, пропагандон</t>
+  </si>
+  <si>
+    <t>"абвгд" тоже люди</t>
+  </si>
+  <si>
+    <t>Москалю не давали говорить</t>
+  </si>
+  <si>
+    <t>Вы поубивали наших в Буче</t>
+  </si>
+  <si>
+    <t>Буча реально была, вот статья</t>
+  </si>
+  <si>
+    <t>Кто не скачет, тот москаль</t>
+  </si>
+  <si>
+    <t>ах бандеро український апостол</t>
+  </si>
+  <si>
+    <t>Крым наш, еще со времен Хрущева</t>
+  </si>
+  <si>
+    <t>Орка забыли спросить</t>
+  </si>
+  <si>
+    <t>У нас презедент умеет играть писькой на пианино, а ваш что может?</t>
+  </si>
+  <si>
+    <t>Донбили бамбасс</t>
+  </si>
+  <si>
+    <t>В Украину</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>Оиньк</t>
+  </si>
+  <si>
+    <t>*Звуки плача свинок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Звуки бомбежки </t>
+  </si>
+  <si>
+    <t xml:space="preserve">А Геракл вообще-то родился на территории Украины </t>
+  </si>
+  <si>
+    <t>Аллея ангелов миф</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>*Звуки поклонения Бандере</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
     <t>0.3</t>
   </si>
   <si>
-    <t>Сталин устроил голодомор</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>Бандера боролся за свободу</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>У вас презедент диктатор</t>
-  </si>
-  <si>
-    <t>Майдан был ради свободы, мы хотели в ЕС</t>
-  </si>
-  <si>
-    <t>Русские - нацисты</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>Хрю-хрю</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Мы хотим в ес</t>
-  </si>
-  <si>
-    <t>Сразу видно, пропагандон</t>
-  </si>
-  <si>
-    <t>"абвгд" тоже люди</t>
-  </si>
-  <si>
-    <t>Москалю не давали говорить</t>
-  </si>
-  <si>
-    <t>Вы поубивали наших в Буче</t>
-  </si>
-  <si>
-    <t>Буча реально была, вот статья</t>
-  </si>
-  <si>
-    <t>Кто не скачет, тот москаль</t>
-  </si>
-  <si>
-    <t>ах бандеро український апостол</t>
-  </si>
-  <si>
-    <t>Крым наш, еще со времен Хрущева</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>Орка забыли спросить</t>
-  </si>
-  <si>
-    <t>У нас презедент умеет играть писькой на пианино, а ваш что может?</t>
-  </si>
-  <si>
-    <t>Донбили бамбасс</t>
-  </si>
-  <si>
-    <t>В Украину</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>Оиньк</t>
-  </si>
-  <si>
-    <t>*Звуки плача свинок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Звуки бомбежки </t>
-  </si>
-  <si>
-    <t>*Звуки покланения Бандере</t>
-  </si>
-  <si>
-    <t xml:space="preserve">А Геракл вообще-то родился на территории Украины </t>
-  </si>
-  <si>
-    <t>Аллея ангелов миф</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.35</t>
+    <t>0.65</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="B1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -517,10 +517,10 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -550,10 +550,10 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -572,10 +572,10 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -616,10 +616,10 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -638,10 +638,10 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -671,10 +671,10 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
         <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -737,10 +737,10 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -759,10 +759,10 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>1</v>
